--- a/timonel-testbed/test/Signals.xlsx
+++ b/timonel-testbed/test/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51087E9F-21F9-4847-B72B-B7EDF81CF249}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FA01F-F80C-43C5-9BFF-24A15EB8789B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,7 +1327,7 @@
           <c:x val="8.3913773732467133E-3"/>
           <c:y val="0.10648148148148148"/>
           <c:w val="0.98987062574752971"/>
-          <c:h val="0.72329469233012544"/>
+          <c:h val="0.66225501563838607"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8119,7 +8119,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="614">
                   <c:v>0</c:v>
@@ -8847,6 +8847,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47318609519474208"/>
+          <c:y val="0.88984219828969047"/>
+          <c:w val="5.3627809610516039E-2"/>
+          <c:h val="6.4378123321561995E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8860,7 +8870,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9481,8 +9491,8 @@
     <xdr:to>
       <xdr:col>82</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9505,6 +9515,132 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Down 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE93EE87-B190-4A86-BB65-14B2F80CB218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38690550" y="2943225"/>
+          <a:ext cx="304800" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Down 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8910804C-F336-412E-823B-9B8D9BCB91E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41471850" y="2952750"/>
+          <a:ext cx="304800" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -37956,7 +38092,7 @@
         <v>614</v>
       </c>
       <c r="B625">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C625">
         <v>5</v>
@@ -42454,14 +42590,14 @@
         <v>5</v>
       </c>
       <c r="D780">
-        <f t="shared" ref="D780:D843" si="36">IF(C780&gt;3,5,2)+$N$4</f>
+        <f t="shared" ref="D780:D816" si="36">IF(C780&gt;3,5,2)+$N$4</f>
         <v>15</v>
       </c>
       <c r="F780">
         <v>5</v>
       </c>
       <c r="G780">
-        <f t="shared" ref="G780:G843" si="37">IF(F780&gt;3,5,2)+$N$5</f>
+        <f t="shared" ref="G780:G816" si="37">IF(F780&gt;3,5,2)+$N$5</f>
         <v>10</v>
       </c>
       <c r="I780">
